--- a/StructureDefinition-ext-R5-MedicinalProductDefinition.operation.xlsx
+++ b/StructureDefinition-ext-R5-MedicinalProductDefinition.operation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -99,7 +99,7 @@
 *  R5: `MedicinalProductDefinition.operation` 0..* `BackboneElement`
 *  R4B: `MedicinalProductDefinition.operation` 0..* `BackboneElement`
 Following are the generation technical comments:
-Element `MedicinalProductDefinition.operation` is mapped to FHIR R4 structure `MedicinalProduct`, but has no target element specified.</t>
+Element `MedicinalProductDefinition.operation` is will have a context of MedicinalProduct based on following the parent source element upwards and mapping to `MedicinalProduct`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -141,7 +141,7 @@
     <t>Context</t>
   </si>
   <si>
-    <t>element:Element</t>
+    <t>element:MedicinalProduct</t>
   </si>
   <si>
     <t>ID</t>
@@ -340,7 +340,7 @@
   </si>
   <si>
     <t>Element `MedicinalProductDefinition.operation.type` is part of an existing definition because parent element `MedicinalProductDefinition.operation` requires a cross-version extension.
-Element `MedicinalProductDefinition.operation.type` is mapped to FHIR R4 structure `MedicinalProduct`, but has no target element specified.</t>
+Element `MedicinalProductDefinition.operation.type` is will have a context of MedicinalProduct based on following the parent source element upwards and mapping to `MedicinalProduct`.</t>
   </si>
   <si>
     <t>Extension.extension:type.id</t>
@@ -458,7 +458,7 @@
   </si>
   <si>
     <t>Element `CodeableReference.concept` is mapped to FHIR R4 element `CodeableConcept`.
-Element `CodeableReference.concept` is mapped to FHIR R4 structure `Reference`, but has no target element specified.</t>
+Element `CodeableReference.concept` is will have a context of Reference based on following the parent source element upwards and mapping to `Reference`.</t>
   </si>
   <si>
     <t>Extension.extension:type.extension:concept.id</t>
@@ -489,7 +489,7 @@
     <t>A reference to a resource the provides exact details about the information being referenced.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.reference` is mapped to FHIR R4 structure `CodeableConcept`, but has no target element specified.
+    <t>Element `CodeableReference.reference` is will have a context of CodeableConcept based on following the parent source element upwards and mapping to `CodeableConcept`.
 Element `CodeableReference.reference` is mapped to FHIR R4 element `Reference`.</t>
   </si>
   <si>
@@ -538,7 +538,7 @@
   </si>
   <si>
     <t>Element `MedicinalProductDefinition.operation.effectiveDate` is part of an existing definition because parent element `MedicinalProductDefinition.operation` requires a cross-version extension.
-Element `MedicinalProductDefinition.operation.effectiveDate` is mapped to FHIR R4 structure `MedicinalProduct`, but has no target element specified.</t>
+Element `MedicinalProductDefinition.operation.effectiveDate` is will have a context of MedicinalProduct based on following the parent source element upwards and mapping to `MedicinalProduct`.</t>
   </si>
   <si>
     <t>Extension.extension:effectiveDate.id</t>
@@ -570,7 +570,8 @@
   </si>
   <si>
     <t>Element `MedicinalProductDefinition.operation.organization` is part of an existing definition because parent element `MedicinalProductDefinition.operation` requires a cross-version extension.
-Element `MedicinalProductDefinition.operation.organization` is mapped to FHIR R4 structure `MedicinalProduct`, but has no target element specified.</t>
+Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `MedicinalProductDefinition.operation.organization` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `MedicinalProductDefinition.operation.organization` is will have a context of MedicinalProduct based on following the parent source element upwards and mapping to `MedicinalProduct`.</t>
   </si>
   <si>
     <t>Extension.extension:organization.id</t>
@@ -602,7 +603,7 @@
   </si>
   <si>
     <t>Element `MedicinalProductDefinition.operation.confidentialityIndicator` is part of an existing definition because parent element `MedicinalProductDefinition.operation` requires a cross-version extension.
-Element `MedicinalProductDefinition.operation.confidentialityIndicator` is mapped to FHIR R4 structure `MedicinalProduct`, but has no target element specified.</t>
+Element `MedicinalProductDefinition.operation.confidentialityIndicator` is will have a context of MedicinalProduct based on following the parent source element upwards and mapping to `MedicinalProduct`.</t>
   </si>
   <si>
     <t>Extension.extension:confidentialityIndicator.id</t>
@@ -963,7 +964,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="163.96484375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="212.97265625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-ext-R5-MedicinalProductDefinition.operation.xlsx
+++ b/StructureDefinition-ext-R5-MedicinalProductDefinition.operation.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1386" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1386" uniqueCount="198">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T04:05:33.0136333+00:00</t>
+    <t>2026-02-17T20:42:20.5370068+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -99,7 +99,7 @@
 *  R5: `MedicinalProductDefinition.operation` 0..* `BackboneElement`
 *  R4B: `MedicinalProductDefinition.operation` 0..* `BackboneElement`
 Following are the generation technical comments:
-Element `MedicinalProductDefinition.operation` is will have a context of MedicinalProduct based on following the parent source element upwards and mapping to `MedicinalProduct`.</t>
+Element `MedicinalProductDefinition.operation` has a context of MedicinalProduct based on following the parent source element upwards and mapping to `MedicinalProduct`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -340,7 +340,7 @@
   </si>
   <si>
     <t>Element `MedicinalProductDefinition.operation.type` is part of an existing definition because parent element `MedicinalProductDefinition.operation` requires a cross-version extension.
-Element `MedicinalProductDefinition.operation.type` is will have a context of MedicinalProduct based on following the parent source element upwards and mapping to `MedicinalProduct`.</t>
+Element `MedicinalProductDefinition.operation.type` has a context of MedicinalProduct based on following the parent source element upwards and mapping to `MedicinalProduct`.</t>
   </si>
   <si>
     <t>Extension.extension:type.id</t>
@@ -457,8 +457,8 @@
     <t>A reference to a concept - e.g. the information is identified by its general class to the degree of precision found in the terminology.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.concept` is mapped to FHIR R4 element `CodeableConcept`.
-Element `CodeableReference.concept` is will have a context of Reference based on following the parent source element upwards and mapping to `Reference`.</t>
+    <t>Element `CodeableReference.concept` has is mapped to FHIR R4 element `CodeableConcept`, but has no comparisons.
+Element `CodeableReference.concept` has a context of Reference based on following the parent source element upwards and mapping to `Reference`.</t>
   </si>
   <si>
     <t>Extension.extension:type.extension:concept.id</t>
@@ -489,8 +489,8 @@
     <t>A reference to a resource the provides exact details about the information being referenced.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.reference` is will have a context of CodeableConcept based on following the parent source element upwards and mapping to `CodeableConcept`.
-Element `CodeableReference.reference` is mapped to FHIR R4 element `Reference`.</t>
+    <t>Element `CodeableReference.reference` has a context of CodeableConcept based on following the parent source element upwards and mapping to `CodeableConcept`.
+Element `CodeableReference.reference` has is mapped to FHIR R4 element `Reference`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:type.extension:reference.id</t>
@@ -515,6 +515,9 @@
     <t>Extension.extension.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicinalProductDefinition.operation.type</t>
+  </si>
+  <si>
     <t>Extension.extension:type.value[x]</t>
   </si>
   <si>
@@ -538,7 +541,7 @@
   </si>
   <si>
     <t>Element `MedicinalProductDefinition.operation.effectiveDate` is part of an existing definition because parent element `MedicinalProductDefinition.operation` requires a cross-version extension.
-Element `MedicinalProductDefinition.operation.effectiveDate` is will have a context of MedicinalProduct based on following the parent source element upwards and mapping to `MedicinalProduct`.</t>
+Element `MedicinalProductDefinition.operation.effectiveDate` has a context of MedicinalProduct based on following the parent source element upwards and mapping to `MedicinalProduct`.</t>
   </si>
   <si>
     <t>Extension.extension:effectiveDate.id</t>
@@ -548,6 +551,9 @@
   </si>
   <si>
     <t>Extension.extension:effectiveDate.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicinalProductDefinition.operation.effectiveDate</t>
   </si>
   <si>
     <t>Extension.extension:effectiveDate.value[x]</t>
@@ -571,7 +577,7 @@
   <si>
     <t>Element `MedicinalProductDefinition.operation.organization` is part of an existing definition because parent element `MedicinalProductDefinition.operation` requires a cross-version extension.
 Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `MedicinalProductDefinition.operation.organization` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `MedicinalProductDefinition.operation.organization` is will have a context of MedicinalProduct based on following the parent source element upwards and mapping to `MedicinalProduct`.</t>
+Element `MedicinalProductDefinition.operation.organization` has a context of MedicinalProduct based on following the parent source element upwards and mapping to `MedicinalProduct`.</t>
   </si>
   <si>
     <t>Extension.extension:organization.id</t>
@@ -581,6 +587,9 @@
   </si>
   <si>
     <t>Extension.extension:organization.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicinalProductDefinition.operation.organization</t>
   </si>
   <si>
     <t>Extension.extension:organization.value[x]</t>
@@ -603,7 +612,7 @@
   </si>
   <si>
     <t>Element `MedicinalProductDefinition.operation.confidentialityIndicator` is part of an existing definition because parent element `MedicinalProductDefinition.operation` requires a cross-version extension.
-Element `MedicinalProductDefinition.operation.confidentialityIndicator` is will have a context of MedicinalProduct based on following the parent source element upwards and mapping to `MedicinalProduct`.</t>
+Element `MedicinalProductDefinition.operation.confidentialityIndicator` has a context of MedicinalProduct based on following the parent source element upwards and mapping to `MedicinalProduct`.</t>
   </si>
   <si>
     <t>Extension.extension:confidentialityIndicator.id</t>
@@ -613,6 +622,9 @@
   </si>
   <si>
     <t>Extension.extension:confidentialityIndicator.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicinalProductDefinition.operation.confidentialityIndicator</t>
   </si>
   <si>
     <t>Extension.extension:confidentialityIndicator.value[x]</t>
@@ -3337,7 +3349,7 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>100</v>
+        <v>159</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>77</v>
@@ -3399,10 +3411,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3425,7 +3437,7 @@
         <v>77</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L24" t="s" s="2">
         <v>131</v>
@@ -3502,13 +3514,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>77</v>
@@ -3533,14 +3545,14 @@
         <v>93</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -3609,7 +3621,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>105</v>
@@ -3712,7 +3724,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>107</v>
@@ -3817,7 +3829,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>158</v>
@@ -3860,7 +3872,7 @@
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>77</v>
@@ -3922,10 +3934,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -3948,13 +3960,13 @@
         <v>77</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4025,13 +4037,13 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>77</v>
@@ -4056,14 +4068,14 @@
         <v>93</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>77</v>
@@ -4132,7 +4144,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>105</v>
@@ -4235,7 +4247,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>107</v>
@@ -4340,7 +4352,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>158</v>
@@ -4383,7 +4395,7 @@
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>77</v>
@@ -4445,10 +4457,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -4471,13 +4483,13 @@
         <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -4548,13 +4560,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D35" t="s" s="2">
         <v>77</v>
@@ -4579,14 +4591,14 @@
         <v>93</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -4655,7 +4667,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>105</v>
@@ -4758,7 +4770,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>107</v>
@@ -4863,7 +4875,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>158</v>
@@ -4906,7 +4918,7 @@
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="S38" t="s" s="2">
         <v>77</v>
@@ -4968,10 +4980,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -4997,10 +5009,10 @@
         <v>146</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5027,13 +5039,13 @@
         <v>77</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>77</v>
@@ -5202,7 +5214,7 @@
         <v>77</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L41" t="s" s="2">
         <v>131</v>

--- a/StructureDefinition-ext-R5-MedicinalProductDefinition.operation.xlsx
+++ b/StructureDefinition-ext-R5-MedicinalProductDefinition.operation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -126,7 +126,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -457,8 +457,7 @@
     <t>A reference to a concept - e.g. the information is identified by its general class to the degree of precision found in the terminology.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.concept` has is mapped to FHIR R4 element `CodeableConcept`, but has no comparisons.
-Element `CodeableReference.concept` has a context of Reference based on following the parent source element upwards and mapping to `Reference`.</t>
+    <t>Element `CodeableReference.concept` has is mapped to FHIR R4 element `CodeableConcept`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:type.extension:concept.id</t>
@@ -489,8 +488,7 @@
     <t>A reference to a resource the provides exact details about the information being referenced.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.reference` has a context of CodeableConcept based on following the parent source element upwards and mapping to `CodeableConcept`.
-Element `CodeableReference.reference` has is mapped to FHIR R4 element `Reference`, but has no comparisons.</t>
+    <t>Element `CodeableReference.reference` has is mapped to FHIR R4 element `Reference`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:type.extension:reference.id</t>
@@ -505,7 +503,7 @@
     <t>Extension.extension:type.extension:reference.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-ActivityDefinition|0.0.1-snapshot-3|ActivityDefinition|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-PlanDefinition|0.0.1-snapshot-3|PlanDefinition|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-ActivityDefinition|ActivityDefinition|http://hl7.org/fhir/5.0/StructureDefinition/profile-PlanDefinition|PlanDefinition)
 </t>
   </si>
   <si>
@@ -595,7 +593,7 @@
     <t>Extension.extension:organization.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|0.0.1-snapshot-3|Organization|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|Organization)
 </t>
   </si>
   <si>
@@ -636,7 +634,7 @@
     <t>Confidentiality rating, e.g. commercial sensitivity for a Medicinal Product.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-medicinal-product-confidentiality-for-R4|0.0.1-snapshot-3</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-medicinal-product-confidentiality-for-R4</t>
   </si>
 </sst>
 </file>
@@ -987,7 +985,7 @@
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="59.7421875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="84.66796875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="66.17578125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-ext-R5-MedicinalProductDefinition.operation.xlsx
+++ b/StructureDefinition-ext-R5-MedicinalProductDefinition.operation.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1386" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1386" uniqueCount="194">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T17:59:09.1776521+00:00</t>
+    <t>2026-02-21T19:36:42.9229177+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -126,7 +126,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -339,8 +339,7 @@
     <t>The type of manufacturing operation e.g. manufacturing itself, re-packaging. For the authorization of this, a RegulatedAuthorization would point to the same plan or activity referenced here.</t>
   </si>
   <si>
-    <t>Element `MedicinalProductDefinition.operation.type` is part of an existing definition because parent element `MedicinalProductDefinition.operation` requires a cross-version extension.
-Element `MedicinalProductDefinition.operation.type` has a context of MedicinalProduct based on following the parent source element upwards and mapping to `MedicinalProduct`.</t>
+    <t>Element `MedicinalProductDefinition.operation.type` has a context of MedicinalProduct based on following the parent source element upwards and mapping to `MedicinalProduct`.</t>
   </si>
   <si>
     <t>Extension.extension:type.id</t>
@@ -457,7 +456,7 @@
     <t>A reference to a concept - e.g. the information is identified by its general class to the degree of precision found in the terminology.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.concept` has is mapped to FHIR R4 element `CodeableConcept`, but has no comparisons.</t>
+    <t>Element `CodeableReference.concept` is mapped to FHIR R4 element `CodeableConcept` as `Equivalent`, concept domain: `Equivalent`, value domain: `Equivalent`.</t>
   </si>
   <si>
     <t>Extension.extension:type.extension:concept.id</t>
@@ -488,7 +487,7 @@
     <t>A reference to a resource the provides exact details about the information being referenced.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.reference` has is mapped to FHIR R4 element `Reference`, but has no comparisons.</t>
+    <t>Element `CodeableReference.reference` is mapped to FHIR R4 element `Reference` as `Equivalent`, concept domain: `Equivalent`, value domain: `Equivalent`.</t>
   </si>
   <si>
     <t>Extension.extension:type.extension:reference.id</t>
@@ -503,7 +502,7 @@
     <t>Extension.extension:type.extension:reference.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-ActivityDefinition|ActivityDefinition|http://hl7.org/fhir/5.0/StructureDefinition/profile-PlanDefinition|PlanDefinition)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-ActivityDefinition|0.0.1-snapshot-3|ActivityDefinition|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-PlanDefinition|0.0.1-snapshot-3|PlanDefinition|4.0.1)
 </t>
   </si>
   <si>
@@ -511,9 +510,6 @@
   </si>
   <si>
     <t>Extension.extension.url</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicinalProductDefinition.operation.type</t>
   </si>
   <si>
     <t>Extension.extension:type.value[x]</t>
@@ -538,8 +534,7 @@
     <t>Date range of applicability.</t>
   </si>
   <si>
-    <t>Element `MedicinalProductDefinition.operation.effectiveDate` is part of an existing definition because parent element `MedicinalProductDefinition.operation` requires a cross-version extension.
-Element `MedicinalProductDefinition.operation.effectiveDate` has a context of MedicinalProduct based on following the parent source element upwards and mapping to `MedicinalProduct`.</t>
+    <t>Element `MedicinalProductDefinition.operation.effectiveDate` has a context of MedicinalProduct based on following the parent source element upwards and mapping to `MedicinalProduct`.</t>
   </si>
   <si>
     <t>Extension.extension:effectiveDate.id</t>
@@ -549,9 +544,6 @@
   </si>
   <si>
     <t>Extension.extension:effectiveDate.url</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicinalProductDefinition.operation.effectiveDate</t>
   </si>
   <si>
     <t>Extension.extension:effectiveDate.value[x]</t>
@@ -573,8 +565,7 @@
     <t>The organization or establishment responsible for (or associated with) the particular process or step, examples include the manufacturer, importer, agent.</t>
   </si>
   <si>
-    <t>Element `MedicinalProductDefinition.operation.organization` is part of an existing definition because parent element `MedicinalProductDefinition.operation` requires a cross-version extension.
-Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `MedicinalProductDefinition.operation.organization` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `MedicinalProductDefinition.operation.organization` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
 Element `MedicinalProductDefinition.operation.organization` has a context of MedicinalProduct based on following the parent source element upwards and mapping to `MedicinalProduct`.</t>
   </si>
   <si>
@@ -587,13 +578,10 @@
     <t>Extension.extension:organization.url</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicinalProductDefinition.operation.organization</t>
-  </si>
-  <si>
     <t>Extension.extension:organization.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|Organization)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|0.0.1-snapshot-3|Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -609,8 +597,7 @@
     <t>Specifies whether this particular business or manufacturing process is considered proprietary or confidential.</t>
   </si>
   <si>
-    <t>Element `MedicinalProductDefinition.operation.confidentialityIndicator` is part of an existing definition because parent element `MedicinalProductDefinition.operation` requires a cross-version extension.
-Element `MedicinalProductDefinition.operation.confidentialityIndicator` has a context of MedicinalProduct based on following the parent source element upwards and mapping to `MedicinalProduct`.</t>
+    <t>Element `MedicinalProductDefinition.operation.confidentialityIndicator` has a context of MedicinalProduct based on following the parent source element upwards and mapping to `MedicinalProduct`.</t>
   </si>
   <si>
     <t>Extension.extension:confidentialityIndicator.id</t>
@@ -622,9 +609,6 @@
     <t>Extension.extension:confidentialityIndicator.url</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicinalProductDefinition.operation.confidentialityIndicator</t>
-  </si>
-  <si>
     <t>Extension.extension:confidentialityIndicator.value[x]</t>
   </si>
   <si>
@@ -634,7 +618,7 @@
     <t>Confidentiality rating, e.g. commercial sensitivity for a Medicinal Product.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-medicinal-product-confidentiality-for-R4</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-medicinal-product-confidentiality-for-R4|0.0.1-snapshot-3</t>
   </si>
 </sst>
 </file>
@@ -985,7 +969,7 @@
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="59.7421875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="66.17578125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="80.5859375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -3347,7 +3331,7 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>159</v>
+        <v>100</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>77</v>
@@ -3409,10 +3393,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="B24" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="B24" t="s" s="2">
-        <v>161</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3435,7 +3419,7 @@
         <v>77</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L24" t="s" s="2">
         <v>131</v>
@@ -3512,13 +3496,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>77</v>
@@ -3543,14 +3527,14 @@
         <v>93</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>166</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -3619,7 +3603,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>105</v>
@@ -3722,7 +3706,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>107</v>
@@ -3827,7 +3811,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>158</v>
@@ -3870,7 +3854,7 @@
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>77</v>
@@ -3932,10 +3916,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -3958,13 +3942,13 @@
         <v>77</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>166</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4035,13 +4019,13 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>77</v>
@@ -4066,14 +4050,14 @@
         <v>93</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>77</v>
@@ -4142,7 +4126,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>105</v>
@@ -4245,7 +4229,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>107</v>
@@ -4350,7 +4334,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>158</v>
@@ -4393,7 +4377,7 @@
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>77</v>
@@ -4455,10 +4439,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -4481,13 +4465,13 @@
         <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -4558,13 +4542,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D35" t="s" s="2">
         <v>77</v>
@@ -4589,14 +4573,14 @@
         <v>93</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -4665,7 +4649,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>105</v>
@@ -4768,7 +4752,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>107</v>
@@ -4873,7 +4857,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>158</v>
@@ -4916,7 +4900,7 @@
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="S38" t="s" s="2">
         <v>77</v>
@@ -4978,10 +4962,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5007,10 +4991,10 @@
         <v>146</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5037,13 +5021,13 @@
         <v>77</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>77</v>
@@ -5212,7 +5196,7 @@
         <v>77</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L41" t="s" s="2">
         <v>131</v>
